--- a/data/Tiktok top 5.xlsx
+++ b/data/Tiktok top 5.xlsx
@@ -524,7 +524,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -558,7 +558,7 @@
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44013</v>
+        <v>43952</v>
       </c>
       <c r="B2" s="2">
         <v>172600</v>
@@ -579,713 +579,737 @@
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44044</v>
+        <v>43983</v>
       </c>
       <c r="B3" s="2">
-        <v>313400</v>
+        <v>172600</v>
       </c>
       <c r="C3" s="2">
-        <v>75000000</v>
+        <v>67000000</v>
       </c>
       <c r="D3" s="2">
-        <v>994000</v>
+        <v>890300</v>
       </c>
       <c r="E3" s="2">
-        <v>50100000</v>
+        <v>48200000</v>
       </c>
       <c r="F3" s="2">
-        <v>11000000</v>
+        <v>10300000</v>
       </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44075</v>
+        <v>44013</v>
       </c>
       <c r="B4" s="2">
-        <v>428500</v>
+        <v>172600</v>
       </c>
       <c r="C4" s="2">
-        <v>83800000</v>
+        <v>67000000</v>
       </c>
       <c r="D4" s="2">
-        <v>8100000</v>
+        <v>890300</v>
       </c>
       <c r="E4" s="2">
-        <v>58400000</v>
+        <v>48200000</v>
       </c>
       <c r="F4" s="2">
-        <v>11900000</v>
+        <v>10300000</v>
       </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44105</v>
+        <v>44044</v>
       </c>
       <c r="B5" s="2">
-        <v>528700</v>
+        <v>313400</v>
       </c>
       <c r="C5" s="2">
-        <v>89900000</v>
+        <v>75000000</v>
       </c>
       <c r="D5" s="2">
-        <v>30500000</v>
+        <v>994000</v>
       </c>
       <c r="E5" s="2">
-        <v>62600000</v>
+        <v>50100000</v>
       </c>
       <c r="F5" s="2">
-        <v>12300000</v>
+        <v>11000000</v>
       </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44136</v>
+        <v>44075</v>
       </c>
       <c r="B6" s="2">
-        <v>603600</v>
+        <v>428500</v>
       </c>
       <c r="C6" s="2">
-        <v>96000000</v>
+        <v>83800000</v>
       </c>
       <c r="D6" s="2">
-        <v>39900000</v>
+        <v>8100000</v>
       </c>
       <c r="E6" s="2">
-        <v>66900000</v>
+        <v>58400000</v>
       </c>
       <c r="F6" s="2">
-        <v>12600000</v>
+        <v>11900000</v>
       </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44166</v>
+        <v>44105</v>
       </c>
       <c r="B7" s="2">
-        <v>704100</v>
+        <v>528700</v>
       </c>
       <c r="C7" s="2">
-        <v>101700000</v>
+        <v>89900000</v>
       </c>
       <c r="D7" s="2">
-        <v>45100000</v>
+        <v>30500000</v>
       </c>
       <c r="E7" s="2">
-        <v>70500000</v>
+        <v>62600000</v>
       </c>
       <c r="F7" s="2">
-        <v>12900000</v>
+        <v>12300000</v>
       </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44197</v>
+        <v>44136</v>
       </c>
       <c r="B8" s="2">
-        <v>813900</v>
+        <v>603600</v>
       </c>
       <c r="C8" s="2">
-        <v>104500000</v>
+        <v>96000000</v>
       </c>
       <c r="D8" s="2">
-        <v>50800000</v>
+        <v>39900000</v>
       </c>
       <c r="E8" s="2">
-        <v>73100000</v>
+        <v>66900000</v>
       </c>
       <c r="F8" s="2">
-        <v>13300000</v>
+        <v>12600000</v>
       </c>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44228</v>
+        <v>44166</v>
       </c>
       <c r="B9" s="2">
-        <v>869100</v>
+        <v>704100</v>
       </c>
       <c r="C9" s="2">
-        <v>107300000</v>
+        <v>101700000</v>
       </c>
       <c r="D9" s="2">
-        <v>54700000</v>
+        <v>45100000</v>
       </c>
       <c r="E9" s="2">
-        <v>75600000</v>
+        <v>70500000</v>
       </c>
       <c r="F9" s="2">
-        <v>14400000</v>
+        <v>12900000</v>
       </c>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44256</v>
+        <v>44197</v>
       </c>
       <c r="B10" s="2">
-        <v>1000000</v>
+        <v>813900</v>
       </c>
       <c r="C10" s="2">
-        <v>109000000</v>
+        <v>104500000</v>
       </c>
       <c r="D10" s="2">
-        <v>57800000</v>
+        <v>50800000</v>
       </c>
       <c r="E10" s="2">
-        <v>77300000</v>
+        <v>73100000</v>
       </c>
       <c r="F10" s="2">
-        <v>14900000</v>
+        <v>13300000</v>
       </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44287</v>
+        <v>44228</v>
       </c>
       <c r="B11" s="2">
-        <v>1800000</v>
+        <v>869100</v>
       </c>
       <c r="C11" s="2">
-        <v>111700000</v>
+        <v>107300000</v>
       </c>
       <c r="D11" s="2">
-        <v>60600000</v>
+        <v>54700000</v>
       </c>
       <c r="E11" s="2">
-        <v>79000000</v>
+        <v>75600000</v>
       </c>
       <c r="F11" s="2">
-        <v>15700000</v>
+        <v>14400000</v>
       </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44317</v>
+        <v>44256</v>
       </c>
       <c r="B12" s="2">
-        <v>31700000</v>
+        <v>1000000</v>
       </c>
       <c r="C12" s="2">
-        <v>114300000</v>
+        <v>109000000</v>
       </c>
       <c r="D12" s="2">
-        <v>64700000</v>
+        <v>57800000</v>
       </c>
       <c r="E12" s="2">
-        <v>79900000</v>
+        <v>77300000</v>
       </c>
       <c r="F12" s="2">
-        <v>16300000</v>
+        <v>14900000</v>
       </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44348</v>
+        <v>44287</v>
       </c>
       <c r="B13" s="2">
-        <v>64200000</v>
+        <v>1800000</v>
       </c>
       <c r="C13" s="2">
-        <v>116700000</v>
+        <v>111700000</v>
       </c>
       <c r="D13" s="2">
-        <v>71000000</v>
+        <v>60600000</v>
       </c>
       <c r="E13" s="2">
-        <v>80800000</v>
+        <v>79000000</v>
       </c>
       <c r="F13" s="2">
-        <v>16700000</v>
+        <v>15700000</v>
       </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44378</v>
+        <v>44317</v>
       </c>
       <c r="B14" s="2">
-        <v>79600000</v>
+        <v>31700000</v>
       </c>
       <c r="C14" s="2">
-        <v>118800000</v>
+        <v>114300000</v>
       </c>
       <c r="D14" s="2">
-        <v>74800000</v>
+        <v>64700000</v>
       </c>
       <c r="E14" s="2">
-        <v>81600000</v>
+        <v>79900000</v>
       </c>
       <c r="F14" s="2">
-        <v>17400000</v>
+        <v>16300000</v>
       </c>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44409</v>
+        <v>44348</v>
       </c>
       <c r="B15" s="2">
-        <v>96800000</v>
+        <v>64200000</v>
       </c>
       <c r="C15" s="2">
-        <v>121300000</v>
+        <v>116700000</v>
       </c>
       <c r="D15" s="2">
-        <v>77300000</v>
+        <v>71000000</v>
       </c>
       <c r="E15" s="2">
-        <v>82100000</v>
+        <v>80800000</v>
       </c>
       <c r="F15" s="2">
-        <v>18700000</v>
+        <v>16700000</v>
       </c>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44440</v>
+        <v>44378</v>
       </c>
       <c r="B16" s="2">
-        <v>108000000</v>
+        <v>79600000</v>
       </c>
       <c r="C16" s="2">
-        <v>123500000</v>
+        <v>118800000</v>
       </c>
       <c r="D16" s="2">
-        <v>80300000</v>
+        <v>74800000</v>
       </c>
       <c r="E16" s="2">
-        <v>83500000</v>
+        <v>81600000</v>
       </c>
       <c r="F16" s="2">
-        <v>19500000</v>
+        <v>17400000</v>
       </c>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>44470</v>
+        <v>44409</v>
       </c>
       <c r="B17" s="2">
-        <v>113800000</v>
+        <v>96800000</v>
       </c>
       <c r="C17" s="2">
-        <v>125300000</v>
+        <v>121300000</v>
       </c>
       <c r="D17" s="2">
-        <v>83100000</v>
+        <v>77300000</v>
       </c>
       <c r="E17" s="2">
-        <v>84000000</v>
+        <v>82100000</v>
       </c>
       <c r="F17" s="2">
-        <v>22200000</v>
+        <v>18700000</v>
       </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44501</v>
+        <v>44440</v>
       </c>
       <c r="B18" s="2">
-        <v>117600000</v>
+        <v>108000000</v>
       </c>
       <c r="C18" s="2">
-        <v>127700000</v>
+        <v>123500000</v>
       </c>
       <c r="D18" s="2">
-        <v>84500000</v>
+        <v>80300000</v>
       </c>
       <c r="E18" s="2">
-        <v>84700000</v>
+        <v>83500000</v>
       </c>
       <c r="F18" s="2">
-        <v>27100000</v>
+        <v>19500000</v>
       </c>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>44531</v>
+        <v>44470</v>
       </c>
       <c r="B19" s="2">
-        <v>122100000</v>
+        <v>113800000</v>
       </c>
       <c r="C19" s="2">
-        <v>130300000</v>
+        <v>125300000</v>
       </c>
       <c r="D19" s="2">
-        <v>85300000</v>
+        <v>83100000</v>
       </c>
       <c r="E19" s="2">
-        <v>85100000</v>
+        <v>84000000</v>
       </c>
       <c r="F19" s="2">
-        <v>29300000</v>
+        <v>22200000</v>
       </c>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>44562</v>
+        <v>44501</v>
       </c>
       <c r="B20" s="2">
-        <v>124700000</v>
+        <v>117600000</v>
       </c>
       <c r="C20" s="2">
-        <v>132600000</v>
+        <v>127700000</v>
       </c>
       <c r="D20" s="2">
-        <v>86900000</v>
+        <v>84500000</v>
       </c>
       <c r="E20" s="2">
-        <v>85300000</v>
+        <v>84700000</v>
       </c>
       <c r="F20" s="2">
-        <v>31800000</v>
+        <v>27100000</v>
       </c>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>44593</v>
+        <v>44531</v>
       </c>
       <c r="B21" s="2">
-        <v>130900000</v>
+        <v>122100000</v>
       </c>
       <c r="C21" s="2">
-        <v>135200000</v>
+        <v>130300000</v>
       </c>
       <c r="D21" s="2">
-        <v>87800000</v>
+        <v>85300000</v>
       </c>
       <c r="E21" s="2">
-        <v>86500000</v>
+        <v>85100000</v>
       </c>
       <c r="F21" s="2">
-        <v>32900000</v>
+        <v>29300000</v>
       </c>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>44621</v>
+        <v>44562</v>
       </c>
       <c r="B22" s="2">
-        <v>133100000</v>
+        <v>124700000</v>
       </c>
       <c r="C22" s="2">
-        <v>137000000</v>
+        <v>132600000</v>
       </c>
       <c r="D22" s="2">
-        <v>88100000</v>
+        <v>86900000</v>
       </c>
       <c r="E22" s="2">
-        <v>86700000</v>
+        <v>85300000</v>
       </c>
       <c r="F22" s="2">
-        <v>34000000</v>
+        <v>31800000</v>
       </c>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>44652</v>
+        <v>44593</v>
       </c>
       <c r="B23" s="2">
-        <v>135400000</v>
+        <v>130900000</v>
       </c>
       <c r="C23" s="2">
-        <v>138500000</v>
+        <v>135200000</v>
       </c>
       <c r="D23" s="2">
-        <v>88600000</v>
+        <v>87800000</v>
       </c>
       <c r="E23" s="2">
-        <v>87300000</v>
+        <v>86500000</v>
       </c>
       <c r="F23" s="2">
-        <v>34800000</v>
+        <v>32900000</v>
       </c>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>44682</v>
+        <v>44621</v>
       </c>
       <c r="B24" s="2">
-        <v>137100000</v>
+        <v>133100000</v>
       </c>
       <c r="C24" s="2">
-        <v>140000000</v>
+        <v>137000000</v>
       </c>
       <c r="D24" s="2">
-        <v>89400000</v>
+        <v>88100000</v>
       </c>
       <c r="E24" s="2">
-        <v>87500000</v>
+        <v>86700000</v>
       </c>
       <c r="F24" s="2">
-        <v>35900000</v>
+        <v>34000000</v>
       </c>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>44713</v>
+        <v>44652</v>
       </c>
       <c r="B25" s="2">
-        <v>139700000</v>
+        <v>135400000</v>
       </c>
       <c r="C25" s="2">
-        <v>141200000</v>
+        <v>138500000</v>
       </c>
       <c r="D25" s="2">
-        <v>89900000</v>
+        <v>88600000</v>
       </c>
       <c r="E25" s="2">
-        <v>87700000</v>
+        <v>87300000</v>
       </c>
       <c r="F25" s="2">
-        <v>37100000</v>
+        <v>34800000</v>
       </c>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>44743</v>
+        <v>44682</v>
       </c>
       <c r="B26" s="2">
-        <v>144900000</v>
+        <v>137100000</v>
       </c>
       <c r="C26" s="2">
-        <v>143000000</v>
+        <v>140000000</v>
       </c>
       <c r="D26" s="2">
-        <v>90300000</v>
+        <v>89400000</v>
       </c>
       <c r="E26" s="2">
-        <v>88100000</v>
+        <v>87500000</v>
       </c>
       <c r="F26" s="2">
-        <v>38100000</v>
+        <v>35900000</v>
       </c>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>44774</v>
+        <v>44713</v>
       </c>
       <c r="B27" s="2">
-        <v>147700000</v>
+        <v>139700000</v>
       </c>
       <c r="C27" s="2">
-        <v>144600000</v>
+        <v>141200000</v>
       </c>
       <c r="D27" s="2">
-        <v>90900000</v>
+        <v>89900000</v>
       </c>
       <c r="E27" s="2">
-        <v>88500000</v>
+        <v>87700000</v>
       </c>
       <c r="F27" s="2">
-        <v>41300000</v>
+        <v>37100000</v>
       </c>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>44805</v>
+        <v>44743</v>
       </c>
       <c r="B28" s="2">
-        <v>149100000</v>
+        <v>144900000</v>
       </c>
       <c r="C28" s="2">
-        <v>146000000</v>
+        <v>143000000</v>
       </c>
       <c r="D28" s="2">
-        <v>91400000</v>
+        <v>90300000</v>
       </c>
       <c r="E28" s="2">
-        <v>88600000</v>
+        <v>88100000</v>
       </c>
       <c r="F28" s="2">
-        <v>42300000</v>
+        <v>38100000</v>
       </c>
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>44835</v>
+        <v>44774</v>
       </c>
       <c r="B29" s="2">
-        <v>150104064</v>
+        <v>147700000</v>
       </c>
       <c r="C29" s="2">
-        <v>147300000</v>
+        <v>144600000</v>
       </c>
       <c r="D29" s="2">
-        <v>91800000</v>
+        <v>90900000</v>
       </c>
       <c r="E29" s="2">
-        <v>88700000</v>
+        <v>88500000</v>
       </c>
       <c r="F29" s="2">
-        <v>44700000</v>
+        <v>41300000</v>
       </c>
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>44866</v>
+        <v>44805</v>
       </c>
       <c r="B30" s="2">
-        <v>151300000</v>
+        <v>149100000</v>
       </c>
       <c r="C30" s="2">
-        <v>148400000</v>
+        <v>146000000</v>
       </c>
       <c r="D30" s="2">
-        <v>92200000</v>
+        <v>91400000</v>
       </c>
       <c r="E30" s="2">
-        <v>88700000</v>
+        <v>88600000</v>
       </c>
       <c r="F30" s="2">
-        <v>51100000</v>
+        <v>42300000</v>
       </c>
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>44896</v>
+        <v>44835</v>
       </c>
       <c r="B31" s="2">
-        <v>152400000</v>
+        <v>150104064</v>
       </c>
       <c r="C31" s="2">
-        <v>148800000</v>
+        <v>147300000</v>
       </c>
       <c r="D31" s="2">
-        <v>92400000</v>
+        <v>91800000</v>
       </c>
       <c r="E31" s="2">
         <v>88700000</v>
       </c>
       <c r="F31" s="2">
-        <v>60600000</v>
+        <v>44700000</v>
       </c>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>44927</v>
+        <v>44866</v>
       </c>
       <c r="B32" s="2">
-        <v>153700000</v>
+        <v>151300000</v>
       </c>
       <c r="C32" s="2">
-        <v>149400000</v>
+        <v>148400000</v>
       </c>
       <c r="D32" s="2">
-        <v>92600000</v>
+        <v>92200000</v>
       </c>
       <c r="E32" s="2">
-        <v>88900000</v>
+        <v>88700000</v>
       </c>
       <c r="F32" s="2">
-        <v>65500000</v>
+        <v>51100000</v>
       </c>
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>44958</v>
+        <v>44896</v>
       </c>
       <c r="B33" s="2">
-        <v>154500000</v>
+        <v>152400000</v>
       </c>
       <c r="C33" s="2">
-        <v>149700000</v>
+        <v>148800000</v>
       </c>
       <c r="D33" s="2">
-        <v>92800000</v>
+        <v>92400000</v>
       </c>
       <c r="E33" s="2">
-        <v>88900000</v>
+        <v>88700000</v>
       </c>
       <c r="F33" s="2">
-        <v>74300000</v>
+        <v>60600000</v>
       </c>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>44986</v>
+        <v>44927</v>
       </c>
       <c r="B34" s="2">
-        <v>155000000</v>
+        <v>153700000</v>
       </c>
       <c r="C34" s="2">
-        <v>150000000</v>
+        <v>149400000</v>
       </c>
       <c r="D34" s="2">
-        <v>92900000</v>
+        <v>92600000</v>
       </c>
       <c r="E34" s="2">
-        <v>88800000</v>
+        <v>88900000</v>
       </c>
       <c r="F34" s="2">
-        <v>77800000</v>
+        <v>65500000</v>
       </c>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
+        <v>44958</v>
+      </c>
+      <c r="B35" s="2">
+        <v>154500000</v>
+      </c>
+      <c r="C35" s="2">
+        <v>149700000</v>
+      </c>
+      <c r="D35" s="2">
+        <v>92800000</v>
+      </c>
+      <c r="E35" s="2">
+        <v>88900000</v>
+      </c>
+      <c r="F35" s="2">
+        <v>74300000</v>
+      </c>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>44986</v>
+      </c>
+      <c r="B36" s="2">
+        <v>155000000</v>
+      </c>
+      <c r="C36" s="2">
+        <v>150000000</v>
+      </c>
+      <c r="D36" s="2">
+        <v>92900000</v>
+      </c>
+      <c r="E36" s="2">
+        <v>88800000</v>
+      </c>
+      <c r="F36" s="2">
+        <v>77800000</v>
+      </c>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <v>45017</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B37" s="2">
         <v>155800000</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C37" s="2">
         <v>150400000</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D37" s="2">
         <v>92900000</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E37" s="2">
         <v>88800000</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F37" s="2">
         <v>79900000</v>
       </c>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
